--- a/branches/HIVDiagnosis-resource-dev---FIG-18/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosis-resource-dev---FIG-18/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:39:31+00:00</t>
+    <t>2023-02-03T15:13:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosis-resource-dev---FIG-18/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosis-resource-dev---FIG-18/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T15:13:54+00:00</t>
+    <t>2023-02-06T14:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
